--- a/sprawozdanie/prir-projekt-wyniki.xlsx
+++ b/sprawozdanie/prir-projekt-wyniki.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/czaacza/Desktop/mati/Politechnika/sem-6/Programowanie równoległe i rozproszone/lab/projekt/sprawozdanie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7FBAD5-D162-E845-A745-A44598B7726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D57D520-BA41-AB48-8B98-D18F69826D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2100" windowWidth="28040" windowHeight="17360" xr2:uid="{6EC29A42-A34A-D140-AD35-C3968339A989}"/>
+    <workbookView xWindow="640" yWindow="1100" windowWidth="32740" windowHeight="19320" xr2:uid="{6EC29A42-A34A-D140-AD35-C3968339A989}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>PCA_seq</t>
   </si>
@@ -66,6 +66,15 @@
   <si>
     <t>średnia</t>
   </si>
+  <si>
+    <t>EU_Immigrants</t>
+  </si>
+  <si>
+    <t>oof_150_1000</t>
+  </si>
+  <si>
+    <t>oof 100_5000</t>
+  </si>
 </sst>
 </file>
 
@@ -89,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,12 +106,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -417,316 +442,838 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2977D64A-4EDD-2C4E-9C9E-9560EA388473}">
-  <dimension ref="B2:M14"/>
+  <dimension ref="B1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="L24" sqref="L24:O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.197452783584594</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.105664014816284</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.31209707260131803</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
         <v>8.5174083709716797E-2</v>
       </c>
-      <c r="H3">
+      <c r="I3" s="1">
         <v>4.2845964431762598E-2</v>
       </c>
-      <c r="I3">
+      <c r="J3" s="1">
         <v>0.13661384582519501</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4">
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.38328504562377</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3.61187291145324</v>
+      </c>
+      <c r="O3" s="1">
+        <v>5.0045850276947004</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.19889807701110801</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>9.9440097808837793E-2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.30189585685729903</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
         <v>8.5856914520263602E-2</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="1">
         <v>4.0718793869018499E-2</v>
       </c>
-      <c r="I4">
+      <c r="J4" s="1">
         <v>0.13519597053527799</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5">
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.4627699851989699</v>
+      </c>
+      <c r="N4" s="1">
+        <v>3.6495680809020898</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5.1212620735168404</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.197206020355224</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>9.5230817794799805E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.29571294784545898</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
         <v>8.56039524078369E-2</v>
       </c>
-      <c r="H5">
+      <c r="I5" s="1">
         <v>4.5101642608642502E-2</v>
       </c>
-      <c r="I5">
+      <c r="J5" s="1">
         <v>0.14018583297729401</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6">
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.3695931434631301</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4.7460491657257</v>
+      </c>
+      <c r="O5" s="1">
+        <v>6.1196570396423304</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.19850611686706501</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>9.8284959793090806E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.30537486076354903</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
         <v>8.48362445831298E-2</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="1">
         <v>4.0771007537841797E-2</v>
       </c>
-      <c r="I6">
+      <c r="J6" s="1">
         <v>0.13057398796081501</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7">
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.4044780731201101</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4.8444409370422301</v>
+      </c>
+      <c r="O6" s="1">
+        <v>6.2567138671875</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.19390487670898399</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>9.6706151962280204E-2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.298074960708618</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
         <v>8.4065914154052707E-2</v>
       </c>
-      <c r="H7">
+      <c r="I7" s="1">
         <v>4.2777061462402302E-2</v>
       </c>
-      <c r="I7">
+      <c r="J7" s="1">
         <v>0.130651235580444</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8">
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.38297820091247</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4.6974971294402996</v>
+      </c>
+      <c r="O7" s="1">
+        <v>6.0916080474853498</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <f ca="1">AVERAGE(C3:C11)</f>
+        <v>0.19719357490539496</v>
+      </c>
+      <c r="D9" s="1">
+        <f ca="1">AVERAGE(D3:D11)</f>
+        <v>9.9065208435058533E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <f ca="1">AVERAGE(E3:E11)</f>
+        <v>0.30263113975524863</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1">
+        <f ca="1">AVERAGE(H3:H11)</f>
+        <v>8.5107421874999978E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <f ca="1">AVERAGE(I3:I11)</f>
+        <v>4.2442893981933537E-2</v>
+      </c>
+      <c r="J9" s="1">
+        <f ca="1">AVERAGE(J3:J11)</f>
+        <v>0.13464417457580519</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="1">
+        <f ca="1">AVERAGE(M3:M11)</f>
+        <v>1.40062088966369</v>
+      </c>
+      <c r="N9" s="1">
+        <f ca="1">AVERAGE(N3:N11)</f>
+        <v>4.3098856449127121</v>
+      </c>
+      <c r="O9" s="1">
+        <f ca="1">AVERAGE(O3:O11)</f>
+        <v>5.7187652111053442</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>0.19951105117797799</v>
-      </c>
-      <c r="D8">
-        <v>9.7232103347778306E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.30538916587829501</v>
-      </c>
-      <c r="G8">
-        <v>8.4933042526245103E-2</v>
-      </c>
-      <c r="H8">
-        <v>4.1105985641479402E-2</v>
-      </c>
-      <c r="I8">
-        <v>0.135179758071899</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9">
+      <c r="N13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>0.19767498970031699</v>
-      </c>
-      <c r="D9">
-        <v>9.5755100250244099E-2</v>
-      </c>
-      <c r="E9">
-        <v>0.30090594291687001</v>
-      </c>
-      <c r="G9">
-        <v>8.4166049957275293E-2</v>
-      </c>
-      <c r="H9">
-        <v>4.6309947967529297E-2</v>
-      </c>
-      <c r="I9">
-        <v>0.13458299636840801</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10">
+      <c r="O13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>0.197640180587768</v>
-      </c>
-      <c r="D10">
-        <v>9.6090078353881794E-2</v>
-      </c>
-      <c r="E10">
-        <v>0.30204868316650302</v>
-      </c>
-      <c r="G10">
-        <v>8.3948850631713798E-2</v>
-      </c>
-      <c r="H10">
-        <v>4.1229963302612298E-2</v>
-      </c>
-      <c r="I10">
-        <v>0.12916302680969199</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11">
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.6984722614288303</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.26598668098449</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6.8037729263305602</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.12903928756713</v>
+      </c>
+      <c r="I14" s="1">
+        <v>7.8882217407226493E-2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.88266396522521</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1.5949897766113199</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2.4043288230895898</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4.6415140628814697</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.6889498233795099</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.78521823883056</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6.1342320442199698</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.0999002456664999</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.13810110092163</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.8888921737670801</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1.5529320240020701</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2.5109870433807302</v>
+      </c>
+      <c r="O15" s="1">
+        <v>4.7428269386291504</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.6809408664703298</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.5954160690307599</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.9521241188049299</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.10886025428771</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.10698509216308499</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.88835096359252</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1.69878602027893</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2.4258837699890101</v>
+      </c>
+      <c r="O16" s="1">
+        <v>4.7967009544372496</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3.7267072200775102</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.1025412082672099</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5.5073471069335902</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.1586430072784399</v>
+      </c>
+      <c r="I17" s="1">
+        <v>9.0837001800537095E-2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.90394616127014</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.7964158058166499</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2.4509689807891801</v>
+      </c>
+      <c r="O17" s="1">
+        <v>5.0506389141082701</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.0587182044982901</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.52542495727539</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6.2331070899963299</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.12670803070068</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7.7613830566406194E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.8570339679718</v>
+      </c>
+      <c r="L18" s="1">
+        <v>5</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.63069915771484</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2.39760994911193</v>
+      </c>
+      <c r="O18" s="1">
+        <v>4.7490251064300502</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>0.19805097579955999</v>
-      </c>
-      <c r="D11">
-        <v>9.8358869552612305E-2</v>
-      </c>
-      <c r="E11">
-        <v>0.30521488189697199</v>
-      </c>
-      <c r="G11">
-        <v>8.4475278854370103E-2</v>
-      </c>
-      <c r="H11">
-        <v>4.4683933258056599E-2</v>
-      </c>
-      <c r="I11">
-        <v>0.13291001319885201</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0.19738602638244601</v>
-      </c>
-      <c r="D12">
-        <v>9.5652103424072196E-2</v>
-      </c>
-      <c r="E12">
-        <v>0.296340942382812</v>
-      </c>
-      <c r="G12">
-        <v>8.4259033203125E-2</v>
-      </c>
-      <c r="H12">
-        <v>4.0296316146850503E-2</v>
-      </c>
-      <c r="I12">
-        <v>0.12858486175537101</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="C20" s="1">
+        <f>AVERAGE(C14:C18)</f>
+        <v>3.9707576751708942</v>
+      </c>
+      <c r="D20" s="1">
+        <f>AVERAGE(D14:D18)</f>
+        <v>1.454917430877682</v>
+      </c>
+      <c r="E20" s="1">
+        <f>AVERAGE(E14:E18)</f>
+        <v>6.1261166572570769</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
-        <f>AVERAGE(C3:C12)</f>
-        <v>0.19762310981750442</v>
-      </c>
-      <c r="D14">
-        <f>AVERAGE(D3:D12)</f>
-        <v>9.7841429710388145E-2</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ref="D14:I14" si="0">AVERAGE(E3:E12)</f>
-        <v>0.30230553150176953</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>8.4731936454772921E-2</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>4.2584061622619573E-2</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>0.13336415290832482</v>
+      <c r="H20" s="1">
+        <f>AVERAGE(H14:H18)</f>
+        <v>1.1246301651000921</v>
+      </c>
+      <c r="I20" s="1">
+        <f>AVERAGE(I14:I18)</f>
+        <v>9.8483848571776958E-2</v>
+      </c>
+      <c r="J20" s="1">
+        <f>AVERAGE(J14:J18)</f>
+        <v>1.88417744636535</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="1">
+        <f>AVERAGE(M14:M18)</f>
+        <v>1.654764556884762</v>
+      </c>
+      <c r="N20" s="1">
+        <f>AVERAGE(N14:N18)</f>
+        <v>2.4379557132720882</v>
+      </c>
+      <c r="O20" s="1">
+        <f>AVERAGE(O14:O18)</f>
+        <v>4.7961411952972375</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>71.1739342212677</v>
+      </c>
+      <c r="D25" s="1">
+        <v>10.166626214980999</v>
+      </c>
+      <c r="E25" s="1">
+        <v>81.976297140121403</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>67.001334905624304</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.56203532218933105</v>
+      </c>
+      <c r="J25" s="1">
+        <v>68.247910261154104</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>2.00053811073303</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.48681688308715798</v>
+      </c>
+      <c r="O25" s="1">
+        <v>3.2038869857788002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>65.835597038269</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10.6022641658782</v>
+      </c>
+      <c r="E26" s="1">
+        <v>77.142242193222003</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>63.114019870758</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.54707980155944802</v>
+      </c>
+      <c r="J26" s="1">
+        <v>64.336893081664996</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2.4670531749725302</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1.5840098857879601</v>
+      </c>
+      <c r="O26" s="1">
+        <v>4.71872806549072</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>67.913228988647404</v>
+      </c>
+      <c r="D27" s="1">
+        <v>14.604106903076101</v>
+      </c>
+      <c r="E27" s="1">
+        <v>83.157827854156494</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>73.163345813751206</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.663244009017944</v>
+      </c>
+      <c r="J27" s="1">
+        <v>74.515857934951697</v>
+      </c>
+      <c r="L27" s="1">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1">
+        <v>2.1059079170227002</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.43387484550476002</v>
+      </c>
+      <c r="O27" s="1">
+        <v>3.2228901386260902</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>63.639106035232501</v>
+      </c>
+      <c r="D28" s="1">
+        <v>11.052978038787799</v>
+      </c>
+      <c r="E28" s="1">
+        <v>75.355221986770601</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>63.150717973709099</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.59331774711608798</v>
+      </c>
+      <c r="J28" s="1">
+        <v>64.415966987609806</v>
+      </c>
+      <c r="L28" s="1">
+        <v>4</v>
+      </c>
+      <c r="M28" s="1">
+        <v>3.9786739349365199</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.92729902267455999</v>
+      </c>
+      <c r="O28" s="1">
+        <v>6.7506151199340803</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>42.1912777423858</v>
+      </c>
+      <c r="D29" s="1">
+        <v>23.436863183975198</v>
+      </c>
+      <c r="E29" s="1">
+        <v>66.383537769317599</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>50.294931888580301</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.498709917068481</v>
+      </c>
+      <c r="J29" s="1">
+        <v>51.465996026992798</v>
+      </c>
+      <c r="L29" s="1">
+        <v>5</v>
+      </c>
+      <c r="M29" s="1">
+        <v>2.0377352237701398</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.49251794815063399</v>
+      </c>
+      <c r="O29" s="1">
+        <v>3.2061100006103498</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1">
+        <f>AVERAGE(C25:C29)</f>
+        <v>62.15062880516048</v>
+      </c>
+      <c r="D31" s="1">
+        <f>AVERAGE(D25:D29)</f>
+        <v>13.97256770133966</v>
+      </c>
+      <c r="E31" s="1">
+        <f>AVERAGE(E25:E29)</f>
+        <v>76.803025388717629</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="1">
+        <f>AVERAGE(H25:H29)</f>
+        <v>63.344870090484584</v>
+      </c>
+      <c r="I31" s="1">
+        <f>AVERAGE(I25:I29)</f>
+        <v>0.57287735939025841</v>
+      </c>
+      <c r="J31" s="1">
+        <f>AVERAGE(J25:J29)</f>
+        <v>64.59652485847468</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="1">
+        <f>AVERAGE(M25:M29)</f>
+        <v>2.5179816722869841</v>
+      </c>
+      <c r="N31" s="1">
+        <f>AVERAGE(N25:N29)</f>
+        <v>0.78490371704101436</v>
+      </c>
+      <c r="O31" s="1">
+        <f>AVERAGE(O25:O29)</f>
+        <v>4.2204460620880084</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>